--- a/resultados/resultados.xlsx
+++ b/resultados/resultados.xlsx
@@ -534,16 +534,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="4">
-        <v>94.85</v>
+        <v>94.47</v>
       </c>
       <c r="C2" s="4">
-        <v>95.96</v>
+        <v>95.9</v>
       </c>
       <c r="D2" s="4">
-        <v>93.35</v>
+        <v>93.02</v>
       </c>
       <c r="E2" s="4">
-        <v>94.64</v>
+        <v>94.63</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>

--- a/resultados/resultados.xlsx
+++ b/resultados/resultados.xlsx
@@ -534,16 +534,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="4">
-        <v>94.47</v>
+        <v>94.66</v>
       </c>
       <c r="C2" s="4">
         <v>95.9</v>
       </c>
       <c r="D2" s="4">
-        <v>93.02</v>
+        <v>93.01</v>
       </c>
       <c r="E2" s="4">
-        <v>94.63</v>
+        <v>94.62</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>

--- a/resultados/resultados.xlsx
+++ b/resultados/resultados.xlsx
@@ -534,16 +534,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="4">
-        <v>94.66</v>
+        <v>99.44</v>
       </c>
       <c r="C2" s="4">
-        <v>95.9</v>
+        <v>99.34</v>
       </c>
       <c r="D2" s="4">
-        <v>93.01</v>
+        <v>99.5</v>
       </c>
       <c r="E2" s="4">
-        <v>94.62</v>
+        <v>99.42</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -559,16 +559,16 @@
         <v>14</v>
       </c>
       <c r="B3" s="4">
-        <v>84.34</v>
+        <v>87.62</v>
       </c>
       <c r="C3" s="4">
-        <v>90.8</v>
+        <v>91.21</v>
       </c>
       <c r="D3" s="4">
-        <v>75.47</v>
+        <v>82.5</v>
       </c>
       <c r="E3" s="4">
-        <v>84.11</v>
+        <v>86.64</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -584,16 +584,16 @@
         <v>15</v>
       </c>
       <c r="B4" s="4">
-        <v>97.42</v>
+        <v>98.26</v>
       </c>
       <c r="C4" s="4">
-        <v>97.45</v>
+        <v>97.87</v>
       </c>
       <c r="D4" s="4">
-        <v>97.35</v>
+        <v>98.58</v>
       </c>
       <c r="E4" s="4">
-        <v>97.42</v>
+        <v>98.22</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -625,18 +625,10 @@
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4">
-        <v>93.16</v>
-      </c>
-      <c r="C6" s="4">
-        <v>95.86</v>
-      </c>
-      <c r="D6" s="4">
-        <v>89.82</v>
-      </c>
-      <c r="E6" s="4">
-        <v>92.74</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -651,16 +643,16 @@
         <v>18</v>
       </c>
       <c r="B7" s="4">
-        <v>98.8</v>
+        <v>98.98</v>
       </c>
       <c r="C7" s="4">
-        <v>99.22</v>
+        <v>99.45</v>
       </c>
       <c r="D7" s="4">
-        <v>98.31</v>
+        <v>98.44</v>
       </c>
       <c r="E7" s="4">
-        <v>98.76</v>
+        <v>98.95</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -676,16 +668,16 @@
         <v>19</v>
       </c>
       <c r="B8" s="4">
-        <v>98.57</v>
+        <v>98.94</v>
       </c>
       <c r="C8" s="4">
-        <v>98.74</v>
+        <v>99.45</v>
       </c>
       <c r="D8" s="4">
-        <v>98.31</v>
+        <v>98.44</v>
       </c>
       <c r="E8" s="4">
-        <v>98.52</v>
+        <v>98.94</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>

--- a/resultados/resultados.xlsx
+++ b/resultados/resultados.xlsx
@@ -625,10 +625,18 @@
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="4">
+        <v>96.53</v>
+      </c>
+      <c r="C6" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>96.04</v>
+      </c>
+      <c r="E6" s="4">
+        <v>96.51</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>

--- a/resultados/resultados.xlsx
+++ b/resultados/resultados.xlsx
@@ -488,7 +488,7 @@
     <col min="13" max="13" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,22 +529,14 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
-        <v>99.44</v>
-      </c>
-      <c r="C2" s="4">
-        <v>99.34</v>
-      </c>
-      <c r="D2" s="4">
-        <v>99.5</v>
-      </c>
-      <c r="E2" s="4">
-        <v>99.42</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -554,22 +546,14 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
-        <v>87.62</v>
-      </c>
-      <c r="C3" s="4">
-        <v>91.21</v>
-      </c>
-      <c r="D3" s="4">
-        <v>82.5</v>
-      </c>
-      <c r="E3" s="4">
-        <v>86.64</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -579,22 +563,14 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4">
-        <v>98.26</v>
-      </c>
-      <c r="C4" s="4">
-        <v>97.87</v>
-      </c>
-      <c r="D4" s="4">
-        <v>98.58</v>
-      </c>
-      <c r="E4" s="4">
-        <v>98.22</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -604,7 +580,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -621,22 +597,14 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4">
-        <v>96.53</v>
-      </c>
-      <c r="C6" s="4">
-        <v>96.8</v>
-      </c>
-      <c r="D6" s="4">
-        <v>96.04</v>
-      </c>
-      <c r="E6" s="4">
-        <v>96.51</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -646,22 +614,14 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4">
-        <v>98.98</v>
-      </c>
-      <c r="C7" s="4">
-        <v>99.45</v>
-      </c>
-      <c r="D7" s="4">
-        <v>98.44</v>
-      </c>
-      <c r="E7" s="4">
-        <v>98.95</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -671,22 +631,14 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4">
-        <v>98.94</v>
-      </c>
-      <c r="C8" s="4">
-        <v>99.45</v>
-      </c>
-      <c r="D8" s="4">
-        <v>98.44</v>
-      </c>
-      <c r="E8" s="4">
-        <v>98.94</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>

--- a/resultados/resultados.xlsx
+++ b/resultados/resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\tfg_Deteccion_de_Intrusos_en_Sistemas_IIoT\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE932F5F-9F44-4D87-A66C-E71D8EE3168E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD8868D-D778-4CE9-8507-E46DD42EC26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23136" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="45">
   <si>
     <t>DT</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>insider_malcious</t>
+  </si>
+  <si>
+    <t>0.8157</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +188,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -320,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -338,10 +349,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -360,15 +367,6 @@
     <xf numFmtId="4" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -383,14 +381,8 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -700,82 +692,82 @@
   </sheetPr>
   <dimension ref="A1:AO36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32:AO33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="14.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="14.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="21"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2">
@@ -796,7 +788,7 @@
       <c r="G4" s="2">
         <v>0.97370000000000001</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="2">
         <v>0.97340000000000004</v>
       </c>
       <c r="I4" s="2">
@@ -808,56 +800,56 @@
       <c r="K4" s="3">
         <v>0.95499999999999996</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="3">
         <v>0.93440000000000001</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="3">
         <v>0.94289999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="24">
         <v>0.99590000000000001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>0.99850000000000005</v>
       </c>
       <c r="D5" s="4">
         <v>0.99309999999999998</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.99580000000000002</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>0.99570000000000003</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>0.99319999999999997</v>
       </c>
       <c r="H5" s="4">
         <v>0.9677</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>0.9798</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>0.99570000000000003</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>0.99129999999999996</v>
       </c>
       <c r="L5" s="4">
         <v>0.91279999999999994</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>0.94289999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2">
@@ -866,7 +858,7 @@
       <c r="C6" s="2">
         <v>0.52459999999999996</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="2">
         <v>0.99839999999999995</v>
       </c>
       <c r="E6" s="2">
@@ -898,10 +890,10 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="24">
         <v>0.98260000000000003</v>
       </c>
       <c r="C7" s="4">
@@ -937,18 +929,55 @@
       <c r="M7" s="4">
         <v>0.89239999999999997</v>
       </c>
+      <c r="O7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="24">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="F8">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="G8">
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="H8">
+        <v>0.9577</v>
+      </c>
+      <c r="I8">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.7702</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="15">
         <v>0.94220000000000004</v>
       </c>
       <c r="C9" s="5">
@@ -986,219 +1015,219 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="18">
-        <v>0.99009999999999998</v>
+      <c r="B10" s="24">
+        <v>0.99029999999999996</v>
       </c>
       <c r="C10" s="4">
-        <v>0.9929</v>
+        <v>0.99160000000000004</v>
       </c>
       <c r="D10" s="4">
-        <v>0.98670000000000002</v>
+        <v>0.98850000000000005</v>
       </c>
       <c r="E10" s="4">
-        <v>0.98980000000000001</v>
-      </c>
-      <c r="F10" s="31">
-        <v>0.98950000000000005</v>
-      </c>
-      <c r="G10" s="31">
-        <v>0.96450000000000002</v>
-      </c>
-      <c r="H10" s="31">
-        <v>0.96040000000000003</v>
-      </c>
-      <c r="I10" s="31">
-        <v>0.96230000000000004</v>
-      </c>
-      <c r="J10" s="31">
-        <v>0.98939999999999995</v>
-      </c>
-      <c r="K10" s="31">
-        <v>0.95889999999999997</v>
-      </c>
-      <c r="L10" s="31">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="M10" s="31">
-        <v>0.93469999999999998</v>
+        <v>0.99</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.9617</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0.9607</v>
+      </c>
+      <c r="J10" s="24">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="L10" s="24">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0.9355</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="24">
         <v>0.98829999999999996</v>
       </c>
       <c r="C11" s="4">
-        <v>0.99490000000000001</v>
+        <v>0.99429999999999996</v>
       </c>
       <c r="D11" s="4">
-        <v>0.98099999999999998</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="E11" s="4">
         <v>0.9879</v>
       </c>
-      <c r="F11" s="31">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="G11" s="31">
-        <v>0.97909999999999997</v>
-      </c>
-      <c r="H11" s="31">
-        <v>0.95279999999999998</v>
-      </c>
-      <c r="I11" s="31">
-        <v>0.96519999999999995</v>
-      </c>
-      <c r="J11" s="31">
-        <v>0.98780000000000001</v>
-      </c>
-      <c r="K11" s="31">
-        <v>0.9788</v>
-      </c>
-      <c r="L11" s="31">
-        <v>0.90510000000000002</v>
-      </c>
-      <c r="M11" s="31">
-        <v>0.93389999999999995</v>
+      <c r="F11" s="24">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="M13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="24" t="s">
+      <c r="M14" s="16"/>
+      <c r="N14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="25" t="s">
+      <c r="P14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q14" s="25" t="s">
+      <c r="Q14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="25" t="s">
+      <c r="S14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="T14" s="25" t="s">
+      <c r="T14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="U14" s="25" t="s">
+      <c r="U14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V14" s="25" t="s">
+      <c r="V14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="W14" s="26" t="s">
+      <c r="W14" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="3">
         <v>0.91420000000000001</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="3">
         <v>0.99939999999999996</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="3">
         <v>0.87119999999999997</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="3">
         <v>0.97689999999999999</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="3">
         <v>0.99509999999999998</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="3">
         <v>0.99990000000000001</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="3">
         <v>0.98729999999999996</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="3">
         <v>0.99329999999999996</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="3">
         <v>0.99939999999999996</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="3">
         <v>1</v>
       </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="16" t="s">
         <v>0</v>
       </c>
       <c r="N15" s="2">
@@ -1233,76 +1262,76 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="5">
         <v>0.96530000000000005</v>
       </c>
-      <c r="C16" s="28">
-        <v>1</v>
-      </c>
-      <c r="D16" s="28">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
         <v>0.98580000000000001</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="3">
         <v>0.99299999999999999</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="3">
         <v>0.99350000000000005</v>
       </c>
-      <c r="G16" s="28">
-        <v>1</v>
-      </c>
-      <c r="H16" s="28">
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
         <v>0.99680000000000002</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="3">
         <v>0.99729999999999996</v>
       </c>
-      <c r="J16" s="28">
-        <v>1</v>
-      </c>
-      <c r="K16" s="28">
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
         <v>1</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="5">
         <v>0.89019999999999999</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="5">
         <v>0.99909999999999999</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="5">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="5">
         <v>0.97460000000000002</v>
       </c>
-      <c r="R16" s="30">
+      <c r="R16" s="5">
         <v>0.99860000000000004</v>
       </c>
-      <c r="S16" s="30">
-        <v>1</v>
-      </c>
-      <c r="T16" s="30">
+      <c r="S16" s="5">
+        <v>1</v>
+      </c>
+      <c r="T16" s="5">
         <v>0.98760000000000003</v>
       </c>
-      <c r="U16" s="30">
+      <c r="U16" s="5">
         <v>0.996</v>
       </c>
-      <c r="V16" s="30">
+      <c r="V16" s="5">
         <v>0.99980000000000002</v>
       </c>
-      <c r="W16" s="30">
+      <c r="W16" s="5">
         <v>0.97260000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2">
@@ -1314,29 +1343,29 @@
       <c r="D17" s="2">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="3">
         <v>0.28639999999999999</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="3">
         <v>0.98919999999999997</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="3">
         <v>0.95509999999999995</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="3">
         <v>0.31090000000000001</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="3">
         <v>0.44440000000000002</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="3">
         <v>0.85740000000000005</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="3">
         <v>0.48649999999999999</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="16" t="s">
         <v>1</v>
       </c>
       <c r="N17" s="2">
@@ -1348,573 +1377,613 @@
       <c r="P17" s="2">
         <v>0.88890000000000002</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="3">
         <v>0.62229999999999996</v>
       </c>
-      <c r="R17" s="28">
+      <c r="R17" s="3">
         <v>0.1426</v>
       </c>
-      <c r="S17" s="28">
+      <c r="S17" s="3">
         <v>0.99670000000000003</v>
       </c>
-      <c r="T17" s="28">
+      <c r="T17" s="3">
         <v>0.69530000000000003</v>
       </c>
-      <c r="U17" s="28">
+      <c r="U17" s="3">
         <v>0.99729999999999996</v>
       </c>
-      <c r="V17" s="28">
+      <c r="V17" s="3">
         <v>0.99750000000000005</v>
       </c>
-      <c r="W17" s="28">
+      <c r="W17" s="3">
         <v>0.98629999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="5">
         <v>0.82299999999999995</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="5">
         <v>0.96719999999999995</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="5">
         <v>0.88890000000000002</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="5">
         <v>0.96640000000000004</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="5">
         <v>0.98609999999999998</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="5">
         <v>0.99790000000000001</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="5">
         <v>0.96479999999999999</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="5">
         <v>0.97650000000000003</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="5">
         <v>0.9728</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="5">
         <v>0.94740000000000002</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="5">
         <v>0.78720000000000001</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18" s="5">
         <v>0.99299999999999999</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="5">
         <v>0.64200000000000002</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="5">
         <v>0.94089999999999996</v>
       </c>
-      <c r="R18" s="30">
+      <c r="R18" s="5">
         <v>0.9798</v>
       </c>
-      <c r="S18" s="30">
-        <v>1</v>
-      </c>
-      <c r="T18" s="30">
+      <c r="S18" s="5">
+        <v>1</v>
+      </c>
+      <c r="T18" s="5">
         <v>0.97719999999999996</v>
       </c>
-      <c r="U18" s="30">
+      <c r="U18" s="5">
         <v>0.93500000000000005</v>
       </c>
-      <c r="V18" s="30">
+      <c r="V18" s="5">
         <v>0.99650000000000005</v>
       </c>
-      <c r="W18" s="30">
+      <c r="W18" s="5">
         <v>0.98629999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="M19" s="21" t="s">
+      <c r="B19" s="15">
+        <v>0.58660000000000001</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.88070000000000004</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.95469999999999999</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.9929</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.62609999999999999</v>
+      </c>
+      <c r="M19" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
+      <c r="N19" s="15">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.9708</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0.98629999999999995</v>
+      </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="15">
         <v>0.3594</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="5">
         <v>0.97389999999999999</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="5">
         <v>0.16250000000000001</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="5">
         <v>0.77969999999999995</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="3">
         <v>0.96609999999999996</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="3">
         <v>0.99429999999999996</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="3">
         <v>0.85819999999999996</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="3">
         <v>0.69310000000000005</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="3">
         <v>0.93989999999999996</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="3">
         <v>0.38419999999999999</v>
       </c>
       <c r="L20" s="3"/>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="29">
+      <c r="N20" s="15">
         <v>0.85129999999999995</v>
       </c>
-      <c r="O20" s="30">
+      <c r="O20" s="5">
         <v>0.997</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="5">
         <v>0.80249999999999999</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="Q20" s="5">
         <v>0.86970000000000003</v>
       </c>
-      <c r="R20" s="28">
+      <c r="R20" s="3">
         <v>0.91969999999999996</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="3">
         <v>0.99729999999999996</v>
       </c>
-      <c r="T20" s="28">
+      <c r="T20" s="3">
         <v>0.87560000000000004</v>
       </c>
-      <c r="U20" s="28">
+      <c r="U20" s="3">
         <v>0.95230000000000004</v>
       </c>
-      <c r="V20" s="28">
+      <c r="V20" s="3">
         <v>0.96930000000000005</v>
       </c>
-      <c r="W20" s="28">
+      <c r="W20" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="20">
-        <v>0.85519999999999996</v>
+      <c r="B21" s="15">
+        <v>0.81420000000000003</v>
       </c>
       <c r="C21" s="5">
-        <v>0.99970000000000003</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5">
         <v>0.89470000000000005</v>
       </c>
       <c r="E21" s="5">
-        <v>0.98429999999999995</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="F21" s="3">
-        <v>0.98750000000000004</v>
+        <v>0.98909999999999998</v>
       </c>
       <c r="G21" s="3">
-        <v>0.99970000000000003</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="H21" s="3">
-        <v>0.98450000000000004</v>
+        <v>0.98060000000000003</v>
       </c>
       <c r="I21" s="3">
-        <v>0.95409999999999995</v>
+        <v>0.95189999999999997</v>
       </c>
       <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="15">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="O21" s="5">
         <v>0.99909999999999999</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="20">
-        <v>0.85129999999999995</v>
-      </c>
-      <c r="O21" s="5">
-        <v>0.99880000000000002</v>
       </c>
       <c r="P21" s="5">
         <v>0.83950000000000002</v>
       </c>
       <c r="Q21" s="5">
-        <v>0.97589999999999999</v>
+        <v>0.97289999999999999</v>
       </c>
       <c r="R21" s="3">
-        <v>0.99329999999999996</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="S21" s="3">
-        <v>0.99929999999999997</v>
+        <v>1</v>
       </c>
       <c r="T21" s="3">
-        <v>0.96640000000000004</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="U21" s="3">
-        <v>0.99339999999999995</v>
+        <v>0.99729999999999996</v>
       </c>
       <c r="V21" s="3">
-        <v>0.99990000000000001</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="W21" s="3">
         <v>0.98629999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="20">
-        <v>0.88619999999999999</v>
+      <c r="B22" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="C22" s="5">
-        <v>0.99909999999999999</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="D22" s="5">
-        <v>0.96350000000000002</v>
+        <v>0.83540000000000003</v>
       </c>
       <c r="E22" s="5">
-        <v>0.99570000000000003</v>
+        <v>0.99150000000000005</v>
       </c>
       <c r="F22" s="3">
-        <v>0.98219999999999996</v>
+        <v>0.98270000000000002</v>
       </c>
       <c r="G22" s="3">
-        <v>0.99919999999999998</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="H22" s="3">
-        <v>0.98560000000000003</v>
+        <v>0.98680000000000001</v>
       </c>
       <c r="I22" s="3">
-        <v>0.99329999999999996</v>
+        <v>0.99590000000000001</v>
       </c>
       <c r="J22" s="3">
         <v>0.99990000000000001</v>
       </c>
       <c r="K22" s="3">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="M22" s="22" t="s">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="M22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="N22" s="20">
-        <v>0.83750000000000002</v>
+      <c r="N22" s="15">
+        <v>0.88100000000000001</v>
       </c>
       <c r="O22" s="5">
-        <v>0.99909999999999999</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="P22" s="5">
-        <v>0.81479999999999997</v>
+        <v>0.84570000000000001</v>
       </c>
       <c r="Q22" s="5">
-        <v>0.96550000000000002</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="R22" s="3">
-        <v>0.99519999999999997</v>
+        <v>0.99460000000000004</v>
       </c>
       <c r="S22" s="3">
-        <v>1</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="T22" s="3">
-        <v>0.95240000000000002</v>
+        <v>0.95189999999999997</v>
       </c>
       <c r="U22" s="3">
-        <v>0.97750000000000004</v>
+        <v>0.9708</v>
       </c>
       <c r="V22" s="3">
-        <v>0.99990000000000001</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="W22" s="3">
-        <v>0.98629999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="V24" s="23" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="V24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="W24" s="24" t="s">
+      <c r="W24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A25" s="21"/>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="M25" s="25" t="s">
+      <c r="M25" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="25" t="s">
+      <c r="N25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O25" s="25" t="s">
+      <c r="O25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="P25" s="25" t="s">
+      <c r="P25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" s="25" t="s">
+      <c r="Q25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="R25" s="25" t="s">
+      <c r="R25" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="S25" s="25" t="s">
+      <c r="S25" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="T25" s="25" t="s">
+      <c r="T25" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="U25" s="25"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="24" t="s">
+      <c r="U25" s="20"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="X25" s="24" t="s">
+      <c r="X25" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Y25" s="24" t="s">
+      <c r="Y25" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Z25" s="24" t="s">
+      <c r="Z25" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AA25" s="25" t="s">
+      <c r="AA25" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AB25" s="25" t="s">
+      <c r="AB25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AC25" s="25" t="s">
+      <c r="AC25" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AD25" s="25" t="s">
+      <c r="AD25" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AE25" s="25" t="s">
+      <c r="AE25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AF25" s="25" t="s">
+      <c r="AF25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AG25" s="25" t="s">
+      <c r="AG25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AH25" s="25" t="s">
+      <c r="AH25" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AI25" s="25" t="s">
+      <c r="AI25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AJ25" s="25" t="s">
+      <c r="AJ25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AK25" s="25" t="s">
+      <c r="AK25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AL25" s="25" t="s">
+      <c r="AL25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AM25" s="25" t="s">
+      <c r="AM25" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AN25" s="25" t="s">
+      <c r="AN25" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AO25" s="25" t="s">
+      <c r="AO25" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="3">
         <v>0.99929999999999997</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="3">
         <v>0.91420000000000001</v>
       </c>
-      <c r="D26" s="28">
-        <v>1</v>
-      </c>
-      <c r="E26" s="28">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
         <v>0.95889999999999997</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="3">
         <v>0.99939999999999996</v>
       </c>
-      <c r="G26" s="28">
-        <v>1</v>
-      </c>
-      <c r="H26" s="28">
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
         <v>0.99329999999999996</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="3">
         <v>0.996</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="3">
         <v>0.99209999999999998</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="3">
         <v>1</v>
       </c>
       <c r="L26" s="2">
         <v>0.99890000000000001</v>
       </c>
-      <c r="M26" s="28">
+      <c r="M26" s="3">
         <v>0.99509999999999998</v>
       </c>
-      <c r="N26" s="28">
+      <c r="N26" s="3">
         <v>0.99990000000000001</v>
       </c>
-      <c r="O26" s="28">
+      <c r="O26" s="3">
         <v>0.85709999999999997</v>
       </c>
-      <c r="P26" s="28">
+      <c r="P26" s="3">
         <v>0.99770000000000003</v>
       </c>
-      <c r="Q26" s="28">
+      <c r="Q26" s="3">
         <v>0.72960000000000003</v>
       </c>
-      <c r="R26" s="28">
-        <v>1</v>
-      </c>
-      <c r="S26" s="28">
+      <c r="R26" s="3">
+        <v>1</v>
+      </c>
+      <c r="S26" s="3">
         <v>0.71279999999999999</v>
       </c>
-      <c r="T26" s="28">
+      <c r="T26" s="3">
         <v>0.99960000000000004</v>
       </c>
-      <c r="V26" s="21" t="s">
+      <c r="V26" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="W26" s="28">
-        <v>1</v>
-      </c>
-      <c r="X26" s="28">
+      <c r="W26" s="3">
+        <v>1</v>
+      </c>
+      <c r="X26" s="3">
         <v>0.92679999999999996</v>
       </c>
-      <c r="Y26" s="28">
+      <c r="Y26" s="3">
         <v>0.99729999999999996</v>
       </c>
-      <c r="Z26" s="28">
+      <c r="Z26" s="3">
         <v>0.97509999999999997</v>
       </c>
-      <c r="AA26" s="28">
+      <c r="AA26" s="3">
         <v>0.99909999999999999</v>
       </c>
-      <c r="AB26" s="28">
+      <c r="AB26" s="3">
         <v>0.66669999999999996</v>
       </c>
-      <c r="AC26" s="28">
+      <c r="AC26" s="3">
         <v>0.98670000000000002</v>
       </c>
-      <c r="AD26" s="28">
+      <c r="AD26" s="3">
         <v>0.99809999999999999</v>
       </c>
-      <c r="AE26" s="28">
+      <c r="AE26" s="3">
         <v>0.99550000000000005</v>
       </c>
-      <c r="AF26" s="28">
+      <c r="AF26" s="3">
         <v>1</v>
       </c>
       <c r="AG26" s="2">
@@ -1946,100 +2015,100 @@
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="30">
-        <v>1</v>
-      </c>
-      <c r="C27" s="28">
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
         <v>0.96530000000000005</v>
       </c>
-      <c r="D27" s="28">
-        <v>1</v>
-      </c>
-      <c r="E27" s="28">
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
         <v>0.98550000000000004</v>
       </c>
-      <c r="F27" s="28">
-        <v>1</v>
-      </c>
-      <c r="G27" s="28">
-        <v>1</v>
-      </c>
-      <c r="H27" s="28">
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
         <v>0.99729999999999996</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="3">
         <v>0.99890000000000001</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="3">
         <v>0.99360000000000004</v>
       </c>
-      <c r="K27" s="28">
-        <v>1</v>
-      </c>
-      <c r="L27" s="30">
-        <v>1</v>
-      </c>
-      <c r="M27" s="28">
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
         <v>0.99350000000000005</v>
       </c>
-      <c r="N27" s="28">
-        <v>1</v>
-      </c>
-      <c r="O27" s="28">
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
         <v>0.98409999999999997</v>
       </c>
-      <c r="P27" s="28">
+      <c r="P27" s="3">
         <v>0.99970000000000003</v>
       </c>
-      <c r="Q27" s="28">
+      <c r="Q27" s="3">
         <v>0.94979999999999998</v>
       </c>
-      <c r="R27" s="28">
-        <v>1</v>
-      </c>
-      <c r="S27" s="28">
+      <c r="R27" s="3">
+        <v>1</v>
+      </c>
+      <c r="S27" s="3">
         <v>0.96699999999999997</v>
       </c>
-      <c r="T27" s="28">
-        <v>1</v>
-      </c>
-      <c r="V27" s="21" t="s">
+      <c r="T27" s="3">
+        <v>1</v>
+      </c>
+      <c r="V27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="W27" s="30">
-        <v>1</v>
-      </c>
-      <c r="X27" s="28">
+      <c r="W27" s="5">
+        <v>1</v>
+      </c>
+      <c r="X27" s="3">
         <v>0.89019999999999999</v>
       </c>
-      <c r="Y27" s="28">
+      <c r="Y27" s="3">
         <v>0.99729999999999996</v>
       </c>
-      <c r="Z27" s="28">
+      <c r="Z27" s="3">
         <v>0.96840000000000004</v>
       </c>
-      <c r="AA27" s="28">
+      <c r="AA27" s="3">
         <v>0.99909999999999999</v>
       </c>
-      <c r="AB27" s="28">
+      <c r="AB27" s="3">
         <v>0.66669999999999996</v>
       </c>
-      <c r="AC27" s="28">
+      <c r="AC27" s="3">
         <v>0.99729999999999996</v>
       </c>
-      <c r="AD27" s="28">
+      <c r="AD27" s="3">
         <v>0.99850000000000005</v>
       </c>
-      <c r="AE27" s="28">
+      <c r="AE27" s="3">
         <v>0.99919999999999998</v>
       </c>
-      <c r="AF27" s="28">
+      <c r="AF27" s="3">
         <v>0.9375</v>
       </c>
-      <c r="AG27" s="27">
+      <c r="AG27" s="22">
         <v>0.99790000000000001</v>
       </c>
       <c r="AH27" s="3">
@@ -2068,7 +2137,7 @@
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="2">
@@ -2080,55 +2149,55 @@
       <c r="D28" s="2">
         <v>0.75760000000000005</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="3">
         <v>0.1323</v>
       </c>
-      <c r="F28" s="28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="28">
-        <v>1</v>
-      </c>
-      <c r="H28" s="28">
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
         <v>0.44379999999999997</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="3">
         <v>0.71399999999999997</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="3">
         <v>0.20330000000000001</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="3">
         <v>0.99680000000000002</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="3">
         <v>0.98919999999999997</v>
       </c>
-      <c r="N28" s="28">
+      <c r="N28" s="3">
         <v>0.95509999999999995</v>
       </c>
-      <c r="O28" s="28">
+      <c r="O28" s="3">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="P28" s="28">
+      <c r="P28" s="3">
         <v>0.94769999999999999</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q28" s="3">
         <v>0.3417</v>
       </c>
-      <c r="R28" s="28">
+      <c r="R28" s="3">
         <v>0.48649999999999999</v>
       </c>
-      <c r="S28" s="28">
+      <c r="S28" s="3">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="T28" s="28">
+      <c r="T28" s="3">
         <v>0.98950000000000005</v>
       </c>
-      <c r="V28" s="21" t="s">
+      <c r="V28" s="16" t="s">
         <v>1</v>
       </c>
       <c r="W28" s="2">
@@ -2140,25 +2209,25 @@
       <c r="Y28" s="2">
         <v>0.99729999999999996</v>
       </c>
-      <c r="Z28" s="28">
+      <c r="Z28" s="3">
         <v>0.97330000000000005</v>
       </c>
-      <c r="AA28" s="28">
+      <c r="AA28" s="3">
         <v>0.99760000000000004</v>
       </c>
-      <c r="AB28" s="28">
+      <c r="AB28" s="3">
         <v>0.66669999999999996</v>
       </c>
-      <c r="AC28" s="28">
+      <c r="AC28" s="3">
         <v>0.99870000000000003</v>
       </c>
-      <c r="AD28" s="28">
+      <c r="AD28" s="3">
         <v>0.73409999999999997</v>
       </c>
-      <c r="AE28" s="28">
+      <c r="AE28" s="3">
         <v>0.49490000000000001</v>
       </c>
-      <c r="AF28" s="28">
+      <c r="AF28" s="3">
         <v>1</v>
       </c>
       <c r="AG28" s="3">
@@ -2190,97 +2259,97 @@
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="5">
         <v>0.99760000000000004</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="5">
         <v>0.82299999999999995</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="5">
         <v>0.97640000000000005</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="5">
         <v>0.87139999999999995</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="5">
         <v>0.96719999999999995</v>
       </c>
-      <c r="G29" s="30">
-        <v>1</v>
-      </c>
-      <c r="H29" s="30">
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
         <v>0.97640000000000005</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="5">
         <v>0.98280000000000001</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J29" s="5">
         <v>0.9637</v>
       </c>
-      <c r="K29" s="30">
-        <v>1</v>
-      </c>
-      <c r="L29" s="30">
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5">
         <v>0.99219999999999997</v>
       </c>
-      <c r="M29" s="28">
+      <c r="M29" s="3">
         <v>0.98609999999999998</v>
       </c>
-      <c r="N29" s="28">
+      <c r="N29" s="3">
         <v>0.99790000000000001</v>
       </c>
-      <c r="O29" s="28">
+      <c r="O29" s="3">
         <v>0.88180000000000003</v>
       </c>
-      <c r="P29" s="28">
+      <c r="P29" s="3">
         <v>0.99160000000000004</v>
       </c>
-      <c r="Q29" s="28">
+      <c r="Q29" s="3">
         <v>0.87939999999999996</v>
       </c>
-      <c r="R29" s="28">
+      <c r="R29" s="3">
         <v>0.94740000000000002</v>
       </c>
-      <c r="S29" s="28">
+      <c r="S29" s="3">
         <v>0.82140000000000002</v>
       </c>
-      <c r="T29" s="28">
+      <c r="T29" s="3">
         <v>0.91020000000000001</v>
       </c>
-      <c r="V29" s="21" t="s">
+      <c r="V29" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="W29" s="30">
-        <v>1</v>
-      </c>
-      <c r="X29" s="30">
+      <c r="W29" s="5">
+        <v>1</v>
+      </c>
+      <c r="X29" s="5">
         <v>0.78720000000000001</v>
       </c>
-      <c r="Y29" s="30">
+      <c r="Y29" s="5">
         <v>0.99199999999999999</v>
       </c>
-      <c r="Z29" s="30">
+      <c r="Z29" s="5">
         <v>0.92200000000000004</v>
       </c>
-      <c r="AA29" s="30">
+      <c r="AA29" s="5">
         <v>0.99299999999999999</v>
       </c>
-      <c r="AB29" s="30">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="30">
+      <c r="AB29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="5">
         <v>0.93479999999999996</v>
       </c>
-      <c r="AD29" s="30">
+      <c r="AD29" s="5">
         <v>0.998</v>
       </c>
-      <c r="AE29" s="30">
+      <c r="AE29" s="5">
         <v>0.97289999999999999</v>
       </c>
-      <c r="AF29" s="30">
+      <c r="AF29" s="5">
         <v>0.4375</v>
       </c>
       <c r="AG29" s="5">
@@ -2312,143 +2381,219 @@
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="V30" s="21" t="s">
+      <c r="B30" s="15">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.58660000000000001</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.85029999999999994</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.97009999999999996</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.26240000000000002</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0.93469999999999998</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0.62609999999999999</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="V30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="W30" s="29"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3"/>
-      <c r="AO30" s="3"/>
+      <c r="W30" s="15">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>0.9708</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>0.79449999999999998</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="AL30" s="3">
+        <v>0.9264</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>0.5222</v>
+      </c>
+      <c r="AO30" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="15">
         <v>0.95520000000000005</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="5">
         <v>0.3594</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="5">
         <v>0.72289999999999999</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="5">
         <v>0.91220000000000001</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="3">
         <v>0.97389999999999999</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="3">
         <v>0.3</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="3">
         <v>0.69689999999999996</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="3">
         <v>0.77370000000000005</v>
       </c>
-      <c r="J31" s="28">
+      <c r="J31" s="3">
         <v>0.85940000000000005</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="3">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L31" s="3">
         <v>0.88129999999999997</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M31" s="3">
         <v>0.96609999999999996</v>
       </c>
-      <c r="N31" s="28">
+      <c r="N31" s="3">
         <v>0.99429999999999996</v>
       </c>
-      <c r="O31" s="28">
+      <c r="O31" s="3">
         <v>0.23860000000000001</v>
       </c>
-      <c r="P31" s="28">
+      <c r="P31" s="3">
         <v>0.78659999999999997</v>
       </c>
-      <c r="Q31" s="28">
+      <c r="Q31" s="3">
         <v>0.34050000000000002</v>
       </c>
-      <c r="R31" s="28">
+      <c r="R31" s="3">
         <v>0.38419999999999999</v>
       </c>
-      <c r="S31" s="28">
+      <c r="S31" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="T31" s="28">
+      <c r="T31" s="3">
         <v>0.9375</v>
       </c>
-      <c r="V31" s="21" t="s">
+      <c r="V31" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="W31" s="29">
+      <c r="W31" s="15">
         <v>0.95930000000000004</v>
       </c>
-      <c r="X31" s="30">
+      <c r="X31" s="5">
         <v>0.85129999999999995</v>
       </c>
-      <c r="Y31" s="30">
+      <c r="Y31" s="5">
         <v>0.99199999999999999</v>
       </c>
-      <c r="Z31" s="30">
+      <c r="Z31" s="5">
         <v>0.56689999999999996</v>
       </c>
-      <c r="AA31" s="28">
+      <c r="AA31" s="3">
         <v>0.997</v>
       </c>
-      <c r="AB31" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="28">
+      <c r="AB31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="3">
         <v>0.95209999999999995</v>
       </c>
-      <c r="AD31" s="28">
+      <c r="AD31" s="3">
         <v>0.81930000000000003</v>
       </c>
-      <c r="AE31" s="28">
+      <c r="AE31" s="3">
         <v>0.87729999999999997</v>
       </c>
-      <c r="AF31" s="28">
+      <c r="AF31" s="3">
         <v>0.9375</v>
       </c>
       <c r="AG31" s="3">
@@ -2480,95 +2625,95 @@
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="15">
         <v>1</v>
       </c>
       <c r="C32" s="5">
-        <v>0.85519999999999996</v>
+        <v>0.81420000000000003</v>
       </c>
       <c r="D32" s="5">
-        <v>0.98429999999999995</v>
+        <v>1</v>
       </c>
       <c r="E32" s="5">
-        <v>0.92320000000000002</v>
+        <v>0.91120000000000001</v>
       </c>
       <c r="F32" s="3">
-        <v>0.99970000000000003</v>
+        <v>1</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
       </c>
       <c r="H32" s="3">
-        <v>0.95399999999999996</v>
+        <v>0.95179999999999998</v>
       </c>
       <c r="I32" s="3">
-        <v>0.99660000000000004</v>
+        <v>0.99460000000000004</v>
       </c>
       <c r="J32" s="3">
-        <v>0.99580000000000002</v>
+        <v>0.99519999999999997</v>
       </c>
       <c r="K32" s="3">
-        <v>0.93330000000000002</v>
+        <v>1</v>
       </c>
       <c r="L32" s="3">
-        <v>0.99790000000000001</v>
+        <v>1</v>
       </c>
       <c r="M32" s="3">
-        <v>0.98750000000000004</v>
+        <v>0.98909999999999998</v>
       </c>
       <c r="N32" s="3">
-        <v>0.99970000000000003</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="O32" s="3">
-        <v>0.89049999999999996</v>
+        <v>0.8841</v>
       </c>
       <c r="P32" s="3">
         <v>0.998</v>
       </c>
       <c r="Q32" s="3">
-        <v>0.79859999999999998</v>
+        <v>0.83150000000000002</v>
       </c>
       <c r="R32" s="3">
-        <v>0.98629999999999995</v>
+        <v>1</v>
       </c>
       <c r="S32" s="3">
-        <v>0.91949999999999998</v>
+        <v>0.87339999999999995</v>
       </c>
       <c r="T32" s="3">
-        <v>0.99890000000000001</v>
-      </c>
-      <c r="V32" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="W32" s="20">
+      <c r="W32" s="15">
         <v>1</v>
       </c>
       <c r="X32" s="5">
-        <v>0.85129999999999995</v>
+        <v>0.84209999999999996</v>
       </c>
       <c r="Y32" s="5">
-        <v>0.99729999999999996</v>
+        <v>0.99470000000000003</v>
       </c>
       <c r="Z32" s="5">
-        <v>0.84040000000000004</v>
+        <v>0.86890000000000001</v>
       </c>
       <c r="AA32" s="3">
-        <v>0.99880000000000002</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="AB32" s="3">
         <v>0.66669999999999996</v>
       </c>
       <c r="AC32" s="3">
-        <v>0.99470000000000003</v>
+        <v>0.99870000000000003</v>
       </c>
       <c r="AD32" s="3">
-        <v>0.99780000000000002</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="AE32" s="3">
-        <v>0.99380000000000002</v>
+        <v>0.99209999999999998</v>
       </c>
       <c r="AF32" s="3">
         <v>0.875</v>
@@ -2577,81 +2722,81 @@
         <v>0.99680000000000002</v>
       </c>
       <c r="AH32" s="3">
-        <v>0.99329999999999996</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="AI32" s="3">
-        <v>0.99929999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ32" s="3">
         <v>0.83560000000000001</v>
       </c>
       <c r="AK32" s="3">
-        <v>0.99839999999999995</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="AL32" s="3">
-        <v>0.71779999999999999</v>
+        <v>0.69630000000000003</v>
       </c>
       <c r="AM32" s="3">
         <v>0.98629999999999995</v>
       </c>
       <c r="AN32" s="3">
-        <v>0.67490000000000006</v>
+        <v>0.67979999999999996</v>
       </c>
       <c r="AO32" s="3">
-        <v>1</v>
+        <v>0.99960000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="15">
         <v>1</v>
       </c>
       <c r="C33" s="5">
-        <v>0.88619999999999999</v>
+        <v>0.81569999999999998</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
       </c>
       <c r="E33" s="5">
-        <v>0.92569999999999997</v>
+        <v>0.94079999999999997</v>
       </c>
       <c r="F33" s="3">
-        <v>0.99909999999999999</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
       </c>
       <c r="H33" s="3">
-        <v>0.99319999999999997</v>
+        <v>0.99590000000000001</v>
       </c>
       <c r="I33" s="3">
-        <v>0.99590000000000001</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="J33" s="3">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0.8367</v>
+      </c>
+      <c r="M33" s="3">
         <v>0.99739999999999995</v>
       </c>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0.98219999999999996</v>
-      </c>
       <c r="N33" s="3">
-        <v>0.99919999999999998</v>
+        <v>0.98019999999999996</v>
       </c>
       <c r="O33" s="3">
-        <v>0.96</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="P33" s="3">
-        <v>0.99790000000000001</v>
+        <v>0.77610000000000001</v>
       </c>
       <c r="Q33" s="3">
-        <v>0.95150000000000001</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="R33" s="3">
         <v>0.98629999999999995</v>
@@ -2662,69 +2807,69 @@
       <c r="T33" s="3">
         <v>0.99960000000000004</v>
       </c>
-      <c r="V33" s="22" t="s">
+      <c r="V33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="W33" s="20">
+      <c r="W33" s="15">
         <v>1</v>
       </c>
       <c r="X33" s="5">
-        <v>0.83750000000000002</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="Y33" s="5">
         <v>0.99729999999999996</v>
       </c>
       <c r="Z33" s="5">
-        <v>0.77659999999999996</v>
+        <v>0.7702</v>
       </c>
       <c r="AA33" s="3">
-        <v>0.99909999999999999</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="AB33" s="3">
         <v>1</v>
       </c>
       <c r="AC33" s="3">
-        <v>0.97740000000000005</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="AD33" s="3">
-        <v>0.99739999999999995</v>
+        <v>0.99660000000000004</v>
       </c>
       <c r="AE33" s="3">
-        <v>0.98509999999999998</v>
+        <v>0.99460000000000004</v>
       </c>
       <c r="AF33" s="3">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AG33" s="3">
-        <v>0.99680000000000002</v>
+        <v>0.84250000000000003</v>
       </c>
       <c r="AH33" s="3">
-        <v>0.99519999999999997</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="AI33" s="3">
-        <v>1</v>
+        <v>0.60740000000000005</v>
       </c>
       <c r="AJ33" s="3">
-        <v>0.82189999999999996</v>
+        <v>1</v>
       </c>
       <c r="AK33" s="3">
-        <v>0.99939999999999996</v>
+        <v>0.51229999999999998</v>
       </c>
       <c r="AL33" s="3">
-        <v>0.66259999999999997</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="AM33" s="3">
-        <v>0.98629999999999995</v>
+        <v>0.96989999999999998</v>
       </c>
       <c r="AN33" s="3">
-        <v>0.4138</v>
+        <v>0.99690000000000001</v>
       </c>
       <c r="AO33" s="3">
-        <v>1</v>
+        <v>0.9526</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="U36" s="25"/>
+      <c r="U36" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
